--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-1.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19916" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58914" uniqueCount="873">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-1.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58914" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79819" uniqueCount="873">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31311,115 +31311,115 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>87</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>87</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="15">
@@ -32935,73 +32935,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>87</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>87</v>
@@ -33013,34 +33013,34 @@
         <v>87</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>87</v>
@@ -34211,115 +34211,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="AH39" s="5" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="40">
@@ -34327,115 +34327,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AH40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AI40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41">
@@ -34443,115 +34443,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>114</v>
+        <v>325</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>114</v>
+        <v>383</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>114</v>
+        <v>407</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>114</v>
+        <v>433</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>114</v>
+        <v>457</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>114</v>
+        <v>481</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>114</v>
+        <v>507</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>114</v>
+        <v>530</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>114</v>
+        <v>552</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>114</v>
+        <v>577</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>114</v>
+        <v>597</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>114</v>
+        <v>618</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>114</v>
+        <v>629</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>114</v>
+        <v>649</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>114</v>
+        <v>673</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>114</v>
+        <v>698</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>114</v>
+        <v>721</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>114</v>
+        <v>743</v>
       </c>
       <c r="AH41" s="5" t="s">
-        <v>114</v>
+        <v>769</v>
       </c>
       <c r="AI41" s="5" t="s">
-        <v>114</v>
+        <v>792</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>114</v>
+        <v>814</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>114</v>
+        <v>838</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>114</v>
+        <v>863</v>
       </c>
     </row>
     <row r="42">
